--- a/data/180_P_features_case.xlsx
+++ b/data/180_P_features_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3998,846 +3998,6 @@
         <v>0.7909</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>1.001922655195681</v>
-      </c>
-      <c r="B64" t="n">
-        <v>18.02120773354326</v>
-      </c>
-      <c r="C64" t="n">
-        <v>8.57847655508067e-06</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-0.01036491922603651</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2.309465257180893e-06</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.002065518783175889</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-9.961760568488846e-08</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.0001819067495561194</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.03689578700579797</v>
-      </c>
-      <c r="J64" t="n">
-        <v>-2.276480332230598e-05</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-0.000569666804602764</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.0008241561377986455</v>
-      </c>
-      <c r="M64" t="n">
-        <v>-4.051939991318663e-05</v>
-      </c>
-      <c r="N64" t="n">
-        <v>9.934312650369246e-06</v>
-      </c>
-      <c r="O64" t="n">
-        <v>3.222203272617084e-05</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0.0002656334050627108</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>512.8461961508186</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0.80435</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1.001950539811066</v>
-      </c>
-      <c r="B65" t="n">
-        <v>18.05422214724846</v>
-      </c>
-      <c r="C65" t="n">
-        <v>9.684803865522214e-06</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-0.007891144793493995</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2.257495697203638e-06</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.001930112906826361</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2.198829480482437e-07</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.0001828387424397945</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.03451837511558455</v>
-      </c>
-      <c r="J65" t="n">
-        <v>-1.903646027879306e-05</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-0.000535950467699274</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.0008285651361249188</v>
-      </c>
-      <c r="M65" t="n">
-        <v>-3.897511154916091e-05</v>
-      </c>
-      <c r="N65" t="n">
-        <v>8.212108902769967e-06</v>
-      </c>
-      <c r="O65" t="n">
-        <v>4.342686215148292e-05</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0.0002584154646338313</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>513.4034987056658</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0.81779</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>1.001971188990104</v>
-      </c>
-      <c r="B66" t="n">
-        <v>18.08526021361273</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1.021046620753832e-05</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-0.005422069372774997</v>
-      </c>
-      <c r="E66" t="n">
-        <v>2.227839493492698e-06</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.001794778976172402</v>
-      </c>
-      <c r="G66" t="n">
-        <v>3.160829180859207e-07</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.0001850818015589153</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.03213629565427881</v>
-      </c>
-      <c r="J66" t="n">
-        <v>-1.865944248872265e-05</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-0.0005010977721572449</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0.0008406969341876435</v>
-      </c>
-      <c r="M66" t="n">
-        <v>-3.727963203773992e-05</v>
-      </c>
-      <c r="N66" t="n">
-        <v>6.960522805901527e-06</v>
-      </c>
-      <c r="O66" t="n">
-        <v>5.235333031159406e-05</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0.0002516062689377937</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>513.9297072050966</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0.8312299999999999</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>1.001995557804768</v>
-      </c>
-      <c r="B67" t="n">
-        <v>18.11435925551057</v>
-      </c>
-      <c r="C67" t="n">
-        <v>9.662577560353936e-06</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-0.002965945369654528</v>
-      </c>
-      <c r="E67" t="n">
-        <v>2.193837335624157e-06</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.001655298714490553</v>
-      </c>
-      <c r="G67" t="n">
-        <v>9.194054866734178e-08</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.0001859867163759559</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.02967298778708701</v>
-      </c>
-      <c r="J67" t="n">
-        <v>-2.343740790567056e-05</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-0.0004653973283048278</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0.0008356071418909631</v>
-      </c>
-      <c r="M67" t="n">
-        <v>-3.557726431530214e-05</v>
-      </c>
-      <c r="N67" t="n">
-        <v>6.190406607039097e-06</v>
-      </c>
-      <c r="O67" t="n">
-        <v>5.876927638568689e-05</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0.0002434173824641532</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>514.4218120952457</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0.84472</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>1.002020557804768</v>
-      </c>
-      <c r="B68" t="n">
-        <v>18.14133515769481</v>
-      </c>
-      <c r="C68" t="n">
-        <v>8.792711438496592e-06</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.0005464913365634526</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2.164836047019793e-06</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.001509415393241959</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-2.436570493927095e-07</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.0001876617904666148</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.02708927832802269</v>
-      </c>
-      <c r="J68" t="n">
-        <v>-2.937429350039991e-05</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-0.0004291027833189852</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.0008391021715836958</v>
-      </c>
-      <c r="M68" t="n">
-        <v>-3.382259222536174e-05</v>
-      </c>
-      <c r="N68" t="n">
-        <v>5.894807590702629e-06</v>
-      </c>
-      <c r="O68" t="n">
-        <v>5.997054901600689e-05</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0.0002364508349570416</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>514.8775104182264</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0.8582</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>1.002038759559154</v>
-      </c>
-      <c r="B69" t="n">
-        <v>18.16611537524367</v>
-      </c>
-      <c r="C69" t="n">
-        <v>8.148885400109829e-06</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.001819914964160309</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2.13485039213141e-06</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.00136817651442617</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-5.605333518049945e-07</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.0001890136648227495</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.02458392730967911</v>
-      </c>
-      <c r="J69" t="n">
-        <v>-3.437264424498303e-05</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-0.0003925192894112373</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.0008443270553743691</v>
-      </c>
-      <c r="M69" t="n">
-        <v>-3.20696799818501e-05</v>
-      </c>
-      <c r="N69" t="n">
-        <v>6.044105896748638e-06</v>
-      </c>
-      <c r="O69" t="n">
-        <v>5.713302524794447e-05</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0.0002296544303129842</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>515.2980301222154</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0.87169</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>1.002056812303194</v>
-      </c>
-      <c r="B70" t="n">
-        <v>18.18861100177438</v>
-      </c>
-      <c r="C70" t="n">
-        <v>7.299282930192828e-06</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.004112431369217961</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2.105165660436347e-06</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.001218317124104364</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-7.37791968061181e-07</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.0001901067731454241</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.02191447736587506</v>
-      </c>
-      <c r="J70" t="n">
-        <v>-3.659065177266081e-05</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-0.0003556896188944025</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.0008485635749362724</v>
-      </c>
-      <c r="M70" t="n">
-        <v>-3.02898160647992e-05</v>
-      </c>
-      <c r="N70" t="n">
-        <v>6.541723832154059e-06</v>
-      </c>
-      <c r="O70" t="n">
-        <v>5.210949027551296e-05</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0.0002231231079270724</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>515.6795266673795</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0.8851700000000001</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>1.002071059660369</v>
-      </c>
-      <c r="B71" t="n">
-        <v>18.20872936659669</v>
-      </c>
-      <c r="C71" t="n">
-        <v>4.89019146689293e-06</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.006305835099209026</v>
-      </c>
-      <c r="E71" t="n">
-        <v>2.081301769166751e-06</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.001071275474805752</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-6.752199768893386e-07</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.0001920663998622279</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.01928747263941245</v>
-      </c>
-      <c r="J71" t="n">
-        <v>-3.464965306811907e-05</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-0.0003184230165193355</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.0008602001632545795</v>
-      </c>
-      <c r="M71" t="n">
-        <v>-2.838328267393756e-05</v>
-      </c>
-      <c r="N71" t="n">
-        <v>7.220208089620975e-06</v>
-      </c>
-      <c r="O71" t="n">
-        <v>4.699338533682273e-05</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0.0002180776174940193</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>516.0216334485286</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0.89866</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>1.002083212438147</v>
-      </c>
-      <c r="B72" t="n">
-        <v>18.22643757497376</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-1.175554440477143e-06</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.008372956539400116</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2.054281869683424e-06</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.0009253050147787338</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-4.709584204537766e-07</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.0001927484430901059</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.01667022512888145</v>
-      </c>
-      <c r="J72" t="n">
-        <v>-3.025623527078025e-05</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-0.0002805948331350589</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.0008573983148085669</v>
-      </c>
-      <c r="M72" t="n">
-        <v>-2.639915007942689e-05</v>
-      </c>
-      <c r="N72" t="n">
-        <v>7.903206292040598e-06</v>
-      </c>
-      <c r="O72" t="n">
-        <v>4.138006066950942e-05</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0.0002124111965741053</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>516.3228035786774</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0.91217</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>1.002094407894737</v>
-      </c>
-      <c r="B73" t="n">
-        <v>18.24161738703954</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-1.160415889282468e-05</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.01028566946095429</v>
-      </c>
-      <c r="E73" t="n">
-        <v>2.026100603972672e-06</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.0007778248311363586</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-2.251154064327508e-07</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.000193831632985377</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.01401718152879195</v>
-      </c>
-      <c r="J73" t="n">
-        <v>-2.513182325561046e-05</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-0.0002420088926338125</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0.0008617772278140148</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-2.419688049581084e-05</v>
-      </c>
-      <c r="N73" t="n">
-        <v>8.526112724387089e-06</v>
-      </c>
-      <c r="O73" t="n">
-        <v>3.589816452137064e-05</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0.0002079201563139245</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>516.5808948914945</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0.9256799999999999</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>1.002105445906433</v>
-      </c>
-      <c r="B74" t="n">
-        <v>18.25425276153347</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-2.505649167478889e-05</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.01203709281822456</v>
-      </c>
-      <c r="E74" t="n">
-        <v>2.002258118162675e-06</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.0006377323917736167</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1.102105085695023e-07</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.0001942142205235511</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.01149193408381598</v>
-      </c>
-      <c r="J74" t="n">
-        <v>-1.838966272289077e-05</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-0.0002024953906929449</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.0008662700203366322</v>
-      </c>
-      <c r="M74" t="n">
-        <v>-2.186448732423339e-05</v>
-      </c>
-      <c r="N74" t="n">
-        <v>8.873132613616484e-06</v>
-      </c>
-      <c r="O74" t="n">
-        <v>3.081917057804144e-05</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0.0002035600831870095</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>516.7949540790217</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0.93919</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>1.00211322537112</v>
-      </c>
-      <c r="B75" t="n">
-        <v>18.26431736392263</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-3.934651911862074e-05</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.01363273380091343</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1.985790008526203e-06</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.0004892207718337269</v>
-      </c>
-      <c r="G75" t="n">
-        <v>5.402223536324785e-07</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.0001939680107365703</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.008807669596178368</v>
-      </c>
-      <c r="J75" t="n">
-        <v>-9.955999691358061e-06</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-0.0001618914088197912</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.0008694940517693807</v>
-      </c>
-      <c r="M75" t="n">
-        <v>-1.939870471163218e-05</v>
-      </c>
-      <c r="N75" t="n">
-        <v>8.833676358558878e-06</v>
-      </c>
-      <c r="O75" t="n">
-        <v>2.657292643215812e-05</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0.0001995083186985024</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>516.9658371978932</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0.9527</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>1.002118478688709</v>
-      </c>
-      <c r="B76" t="n">
-        <v>18.27182450204928</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-5.156976974519844e-05</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.01509048119610856</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1.976431775364794e-06</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.0003409948551268837</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1.030708131283738e-06</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.0001942817731211967</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.006124567311856741</v>
-      </c>
-      <c r="J76" t="n">
-        <v>-4.864080480737624e-07</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-0.0001200833766031358</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.0008786737595435348</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-1.675143436687003e-05</v>
-      </c>
-      <c r="N76" t="n">
-        <v>8.431702559762123e-06</v>
-      </c>
-      <c r="O76" t="n">
-        <v>2.381185635030864e-05</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0.0001970821589727033</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>517.0933522501441</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0.96621</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>1.002122421839856</v>
-      </c>
-      <c r="B77" t="n">
-        <v>18.27678687459389</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-5.967674375374904e-05</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.01641992764313693</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1.968795064308114e-06</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.0001902499758820288</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1.596190578188258e-06</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.0001933961943035531</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.003390902333197443</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1.046625265250914e-05</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-7.687687249711038e-05</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.0008737263539011347</v>
-      </c>
-      <c r="M77" t="n">
-        <v>-1.393194130958852e-05</v>
-      </c>
-      <c r="N77" t="n">
-        <v>7.85224990522333e-06</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1.817867165331821e-05</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0.0001946473375482331</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>517.1772915433493</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0.97972</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1.002124758209627</v>
-      </c>
-      <c r="B78" t="n">
-        <v>18.27918323899135</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-6.327977317370632e-05</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.01761295126713416</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1.964042776661606e-06</v>
-      </c>
-      <c r="F78" t="n">
-        <v>3.477191870332883e-05</v>
-      </c>
-      <c r="G78" t="n">
-        <v>2.238923807703554e-06</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.0001932426652647511</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.0005694398168937747</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2.300888768774676e-05</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-3.225473577988329e-05</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.0008746617927475383</v>
-      </c>
-      <c r="M78" t="n">
-        <v>-1.097599702315752e-05</v>
-      </c>
-      <c r="N78" t="n">
-        <v>7.258388844926151e-06</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.036953343860586e-05</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0.000194094561552894</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>517.2176068220979</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0.99324</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
